--- a/Outputs/3. Prosumer percentage/Base Cases/50/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/50/Output_0_40.xlsx
@@ -26320,40 +26320,40 @@
         <v>765876.6315073043</v>
       </c>
       <c r="E2" t="n">
-        <v>726589.5870743893</v>
+        <v>726589.5870743892</v>
       </c>
       <c r="F2" t="n">
-        <v>754477.7851051617</v>
+        <v>754477.7851051618</v>
       </c>
       <c r="G2" t="n">
-        <v>759503.0024915506</v>
+        <v>759503.0024915508</v>
       </c>
       <c r="H2" t="n">
-        <v>759503.0024915506</v>
+        <v>759503.0024915508</v>
       </c>
       <c r="I2" t="n">
-        <v>759503.0024915506</v>
+        <v>759503.0024915508</v>
       </c>
       <c r="J2" t="n">
-        <v>726589.5870743893</v>
+        <v>726589.5870743892</v>
       </c>
       <c r="K2" t="n">
-        <v>759503.0024915506</v>
+        <v>759503.0024915508</v>
       </c>
       <c r="L2" t="n">
-        <v>764084.4200479906</v>
+        <v>764084.4200479905</v>
       </c>
       <c r="M2" t="n">
-        <v>764084.4200479906</v>
+        <v>764084.4200479905</v>
       </c>
       <c r="N2" t="n">
-        <v>764084.4200479906</v>
+        <v>764084.4200479905</v>
       </c>
       <c r="O2" t="n">
-        <v>711124.2630048536</v>
+        <v>711124.2630048537</v>
       </c>
       <c r="P2" t="n">
-        <v>626813.7244016189</v>
+        <v>626813.7244016192</v>
       </c>
     </row>
     <row r="3">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>437137.1652114342</v>
+        <v>437137.1652114343</v>
       </c>
       <c r="C4" t="n">
-        <v>437137.1652114342</v>
+        <v>437137.1652114343</v>
       </c>
       <c r="D4" t="n">
-        <v>437137.1652114342</v>
+        <v>437137.1652114343</v>
       </c>
       <c r="E4" t="n">
         <v>414713.4137527421</v>
       </c>
       <c r="F4" t="n">
-        <v>430631.0789856324</v>
+        <v>430631.0789856325</v>
       </c>
       <c r="G4" t="n">
-        <v>433499.307617356</v>
+        <v>433499.3076173561</v>
       </c>
       <c r="H4" t="n">
-        <v>433499.307617356</v>
+        <v>433499.3076173561</v>
       </c>
       <c r="I4" t="n">
-        <v>433499.307617356</v>
+        <v>433499.3076173561</v>
       </c>
       <c r="J4" t="n">
         <v>414713.4137527421</v>
       </c>
       <c r="K4" t="n">
-        <v>433499.307617356</v>
+        <v>433499.3076173561</v>
       </c>
       <c r="L4" t="n">
-        <v>436114.2299180019</v>
+        <v>436114.229918002</v>
       </c>
       <c r="M4" t="n">
-        <v>436114.2299180019</v>
+        <v>436114.229918002</v>
       </c>
       <c r="N4" t="n">
-        <v>436114.2299180019</v>
+        <v>436114.229918002</v>
       </c>
       <c r="O4" t="n">
-        <v>405886.3159608591</v>
+        <v>405886.315960859</v>
       </c>
       <c r="P4" t="n">
         <v>357764.6364027126</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>295111.8662958701</v>
+        <v>295111.86629587</v>
       </c>
       <c r="C6" t="n">
-        <v>295111.8662958701</v>
+        <v>295111.86629587</v>
       </c>
       <c r="D6" t="n">
-        <v>295111.8662958701</v>
+        <v>295111.86629587</v>
       </c>
       <c r="E6" t="n">
-        <v>20581.57179413398</v>
+        <v>20581.57179413387</v>
       </c>
       <c r="F6" t="n">
-        <v>261135.0668308837</v>
+        <v>261135.0668308838</v>
       </c>
       <c r="G6" t="n">
-        <v>287001.0368439987</v>
+        <v>287001.0368439988</v>
       </c>
       <c r="H6" t="n">
         <v>294215.9936083764</v>
@@ -26543,25 +26543,25 @@
         <v>294215.9936083764</v>
       </c>
       <c r="J6" t="n">
-        <v>59478.65933161951</v>
+        <v>59478.65933161939</v>
       </c>
       <c r="K6" t="n">
-        <v>223636.7752977829</v>
+        <v>223636.775297783</v>
       </c>
       <c r="L6" t="n">
-        <v>278807.7971928741</v>
+        <v>278807.7971928739</v>
       </c>
       <c r="M6" t="n">
-        <v>295216.3665887714</v>
+        <v>295216.3665887712</v>
       </c>
       <c r="N6" t="n">
-        <v>295216.3665887714</v>
+        <v>295216.3665887712</v>
       </c>
       <c r="O6" t="n">
-        <v>116546.041382897</v>
+        <v>116546.0413828972</v>
       </c>
       <c r="P6" t="n">
-        <v>250250.7136421999</v>
+        <v>250250.7136422001</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Base Cases/50/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/50/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>852176.9903005658</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6484701.975050707</v>
+        <v>6546575.878342113</v>
       </c>
     </row>
     <row r="11">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.61004246417514</v>
+        <v>31.19352328186397</v>
       </c>
       <c r="C11" t="n">
-        <v>48.62135942185688</v>
+        <v>19.20484023954572</v>
       </c>
       <c r="D11" t="n">
-        <v>39.60266346638485</v>
+        <v>10.18614428407369</v>
       </c>
       <c r="E11" t="n">
-        <v>61.34480103629039</v>
+        <v>31.92828185397923</v>
       </c>
       <c r="F11" t="n">
-        <v>80.51661712426755</v>
+        <v>51.10009794195639</v>
       </c>
       <c r="G11" t="n">
-        <v>82.44988502169008</v>
+        <v>53.03336583937892</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>4.116419704354257</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>29.41651918231116</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>48.71677741505778</v>
+        <v>19.30025823274661</v>
       </c>
       <c r="Y11" t="n">
-        <v>60.11337521125654</v>
+        <v>30.69685602894538</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.00737899779028</v>
+        <v>31.19352328186397</v>
       </c>
       <c r="C14" t="n">
-        <v>9.018695955472026</v>
+        <v>19.20484023954572</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>10.18614428407369</v>
       </c>
       <c r="E14" t="n">
-        <v>21.74213756990554</v>
+        <v>31.92828185397923</v>
       </c>
       <c r="F14" t="n">
-        <v>40.9139536578827</v>
+        <v>51.10009794195639</v>
       </c>
       <c r="G14" t="n">
-        <v>42.84722155530523</v>
+        <v>53.03336583937892</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.114113948672923</v>
+        <v>19.30025823274661</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.51071174487168</v>
+        <v>30.69685602894538</v>
       </c>
     </row>
     <row r="15">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.98868304231826</v>
+        <v>21.00737899779028</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9.018695955472026</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>12.72344161443351</v>
+        <v>21.74213756990554</v>
       </c>
       <c r="F17" t="n">
-        <v>31.89525770241067</v>
+        <v>40.9139536578827</v>
       </c>
       <c r="G17" t="n">
-        <v>33.8285255998332</v>
+        <v>42.84722155530523</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.09541799320089694</v>
+        <v>9.114113948672923</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.49201578939966</v>
+        <v>20.51071174487168</v>
       </c>
     </row>
     <row r="18">
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.98868304231826</v>
+        <v>21.00737899779028</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.018695955472026</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12.72344161443351</v>
+        <v>21.74213756990554</v>
       </c>
       <c r="F20" t="n">
-        <v>31.89525770241067</v>
+        <v>40.9139536578827</v>
       </c>
       <c r="G20" t="n">
-        <v>33.8285255998332</v>
+        <v>42.84722155530523</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.09541799320089694</v>
+        <v>9.114113948672923</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.49201578939966</v>
+        <v>20.51071174487168</v>
       </c>
     </row>
     <row r="21">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.98868304231826</v>
+        <v>21.00737899779028</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>9.018695955472026</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>12.72344161443351</v>
+        <v>21.74213756990554</v>
       </c>
       <c r="F23" t="n">
-        <v>31.89525770241067</v>
+        <v>40.9139536578827</v>
       </c>
       <c r="G23" t="n">
-        <v>33.8285255998332</v>
+        <v>42.84722155530523</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.09541799320089694</v>
+        <v>9.114113948672923</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.49201578939966</v>
+        <v>20.51071174487168</v>
       </c>
     </row>
     <row r="24">
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.61004246417514</v>
+        <v>31.19352328186397</v>
       </c>
       <c r="C26" t="n">
-        <v>48.62135942185688</v>
+        <v>19.20484023954572</v>
       </c>
       <c r="D26" t="n">
-        <v>39.60266346638485</v>
+        <v>10.18614428407369</v>
       </c>
       <c r="E26" t="n">
-        <v>61.34480103629039</v>
+        <v>31.92828185397923</v>
       </c>
       <c r="F26" t="n">
-        <v>80.51661712426755</v>
+        <v>51.10009794195639</v>
       </c>
       <c r="G26" t="n">
-        <v>82.44988502169008</v>
+        <v>53.03336583937892</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>4.116419704354257</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>29.41651918231116</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>48.71677741505778</v>
+        <v>19.30025823274661</v>
       </c>
       <c r="Y26" t="n">
-        <v>60.11337521125654</v>
+        <v>30.69685602894538</v>
       </c>
     </row>
     <row r="27">
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.98868304231826</v>
+        <v>31.19352328186397</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>19.20484023954572</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>10.18614428407369</v>
       </c>
       <c r="E29" t="n">
-        <v>12.72344161443351</v>
+        <v>31.92828185397923</v>
       </c>
       <c r="F29" t="n">
-        <v>31.89525770241067</v>
+        <v>51.10009794195639</v>
       </c>
       <c r="G29" t="n">
-        <v>33.8285255998332</v>
+        <v>53.03336583937892</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.09541799320089694</v>
+        <v>19.30025823274661</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.49201578939966</v>
+        <v>30.69685602894538</v>
       </c>
     </row>
     <row r="30">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4966672529185985</v>
+        <v>21.00737899779028</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>9.018695955472026</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.231425825033853</v>
+        <v>21.74213756990554</v>
       </c>
       <c r="F32" t="n">
-        <v>20.40324191301102</v>
+        <v>40.9139536578827</v>
       </c>
       <c r="G32" t="n">
-        <v>22.33650981043354</v>
+        <v>42.84722155530523</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>9.114113948672923</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>20.51071174487168</v>
       </c>
     </row>
     <row r="33">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4966672529185985</v>
+        <v>21.00737899779028</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.018695955472026</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.231425825033853</v>
+        <v>21.74213756990554</v>
       </c>
       <c r="F35" t="n">
-        <v>20.40324191301102</v>
+        <v>40.9139536578827</v>
       </c>
       <c r="G35" t="n">
-        <v>22.33650981043354</v>
+        <v>42.84722155530523</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.114113948672923</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>20.51071174487168</v>
       </c>
     </row>
     <row r="36">
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4966672529185985</v>
+        <v>21.00737899779028</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>9.018695955472026</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.231425825033853</v>
+        <v>21.74213756990554</v>
       </c>
       <c r="F38" t="n">
-        <v>20.40324191301102</v>
+        <v>40.9139536578827</v>
       </c>
       <c r="G38" t="n">
-        <v>22.33650981043354</v>
+        <v>42.84722155530523</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>9.114113948672923</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>20.51071174487168</v>
       </c>
     </row>
     <row r="39">
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.27258708447619</v>
+        <v>31.19352328186397</v>
       </c>
       <c r="C41" t="n">
-        <v>66.28390404215793</v>
+        <v>19.20484023954572</v>
       </c>
       <c r="D41" t="n">
-        <v>57.2652080866859</v>
+        <v>10.18614428407369</v>
       </c>
       <c r="E41" t="n">
-        <v>79.00734565659144</v>
+        <v>31.92828185397923</v>
       </c>
       <c r="F41" t="n">
-        <v>98.1791617445686</v>
+        <v>51.10009794195639</v>
       </c>
       <c r="G41" t="n">
-        <v>100.1124296419911</v>
+        <v>53.03336583937892</v>
       </c>
       <c r="H41" t="n">
-        <v>17.66254462030105</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>21.77896432465531</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>47.07906380261221</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>66.37932203535883</v>
+        <v>19.30025823274661</v>
       </c>
       <c r="Y41" t="n">
-        <v>77.77591983155759</v>
+        <v>30.69685602894538</v>
       </c>
     </row>
     <row r="42">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>166.4966099727179</v>
+        <v>31.19352328186397</v>
       </c>
       <c r="C44" t="n">
-        <v>154.5079269303997</v>
+        <v>19.20484023954572</v>
       </c>
       <c r="D44" t="n">
-        <v>145.4892309749276</v>
+        <v>10.18614428407369</v>
       </c>
       <c r="E44" t="n">
-        <v>167.2313685448332</v>
+        <v>31.92828185397923</v>
       </c>
       <c r="F44" t="n">
-        <v>186.4031846328103</v>
+        <v>51.10009794195639</v>
       </c>
       <c r="G44" t="n">
-        <v>188.3364525302329</v>
+        <v>53.03336583937892</v>
       </c>
       <c r="H44" t="n">
-        <v>105.8865675085428</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>28.72998877302487</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>110.002987212897</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>135.3030866908539</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>154.6033449236006</v>
+        <v>19.30025823274661</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.9999427197993</v>
+        <v>30.69685602894538</v>
       </c>
     </row>
     <row r="45">
@@ -26001,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>2.505172176028339</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>15.29621592890203</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26074,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>7.240669502356923</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>60.71184296567009</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>34.52145724704059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>59.68834331765385</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>5.333445313456963</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544942.1903057919</v>
+        <v>560993.4363187976</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>565858.3388288711</v>
+        <v>560993.4363187976</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>569627.251868663</v>
+        <v>565858.3388288711</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>569627.251868663</v>
+        <v>565858.3388288711</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>569627.251868663</v>
+        <v>565858.3388288711</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>544942.1903057919</v>
+        <v>560993.4363187976</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>569627.251868663</v>
+        <v>560993.4363187976</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>573063.3150359929</v>
+        <v>565858.3388288711</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>573063.3150359929</v>
+        <v>565858.3388288711</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>573063.3150359929</v>
+        <v>565858.3388288711</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>533343.1972536402</v>
+        <v>560993.4363187976</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>470110.2933012144</v>
+        <v>560993.4363187976</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>765876.6315073043</v>
       </c>
       <c r="E2" t="n">
-        <v>726589.5870743892</v>
+        <v>747991.2484250636</v>
       </c>
       <c r="F2" t="n">
+        <v>747991.2484250636</v>
+      </c>
+      <c r="G2" t="n">
         <v>754477.7851051618</v>
       </c>
-      <c r="G2" t="n">
-        <v>759503.0024915508</v>
-      </c>
       <c r="H2" t="n">
-        <v>759503.0024915508</v>
+        <v>754477.7851051618</v>
       </c>
       <c r="I2" t="n">
-        <v>759503.0024915508</v>
+        <v>754477.7851051618</v>
       </c>
       <c r="J2" t="n">
-        <v>726589.5870743892</v>
+        <v>747991.2484250636</v>
       </c>
       <c r="K2" t="n">
-        <v>759503.0024915508</v>
+        <v>747991.2484250636</v>
       </c>
       <c r="L2" t="n">
-        <v>764084.4200479905</v>
+        <v>754477.7851051618</v>
       </c>
       <c r="M2" t="n">
-        <v>764084.4200479905</v>
+        <v>754477.7851051618</v>
       </c>
       <c r="N2" t="n">
-        <v>764084.4200479905</v>
+        <v>754477.7851051618</v>
       </c>
       <c r="O2" t="n">
-        <v>711124.2630048537</v>
+        <v>747991.2484250636</v>
       </c>
       <c r="P2" t="n">
-        <v>626813.7244016192</v>
+        <v>747991.2484250636</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>263594.449326931</v>
+        <v>287127.66467278</v>
       </c>
       <c r="F3" t="n">
-        <v>31682.13077310789</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7214.956764377621</v>
+        <v>8148.915427258953</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224697.3617894455</v>
+        <v>278978.749245521</v>
       </c>
       <c r="K3" t="n">
-        <v>70579.21831059339</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16408.56939589735</v>
+        <v>16297.83085451791</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>162476.6259241995</v>
+        <v>270829.8338182621</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>437137.1652114343</v>
       </c>
       <c r="E4" t="n">
-        <v>414713.4137527421</v>
+        <v>426928.7774141671</v>
       </c>
       <c r="F4" t="n">
+        <v>426928.7774141671</v>
+      </c>
+      <c r="G4" t="n">
         <v>430631.0789856325</v>
       </c>
-      <c r="G4" t="n">
-        <v>433499.3076173561</v>
-      </c>
       <c r="H4" t="n">
-        <v>433499.3076173561</v>
+        <v>430631.0789856325</v>
       </c>
       <c r="I4" t="n">
-        <v>433499.3076173561</v>
+        <v>430631.0789856325</v>
       </c>
       <c r="J4" t="n">
-        <v>414713.4137527421</v>
+        <v>426928.7774141671</v>
       </c>
       <c r="K4" t="n">
-        <v>433499.3076173561</v>
+        <v>426928.7774141671</v>
       </c>
       <c r="L4" t="n">
-        <v>436114.229918002</v>
+        <v>430631.0789856325</v>
       </c>
       <c r="M4" t="n">
-        <v>436114.229918002</v>
+        <v>430631.0789856325</v>
       </c>
       <c r="N4" t="n">
-        <v>436114.229918002</v>
+        <v>430631.0789856325</v>
       </c>
       <c r="O4" t="n">
-        <v>405886.315960859</v>
+        <v>426928.7774141671</v>
       </c>
       <c r="P4" t="n">
-        <v>357764.6364027126</v>
+        <v>426928.7774141671</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>27700.15220058221</v>
+        <v>30173.16955171993</v>
       </c>
       <c r="F5" t="n">
+        <v>30173.16955171993</v>
+      </c>
+      <c r="G5" t="n">
         <v>31029.50851553772</v>
       </c>
-      <c r="G5" t="n">
-        <v>31787.70126581829</v>
-      </c>
       <c r="H5" t="n">
-        <v>31787.70126581829</v>
+        <v>31029.50851553772</v>
       </c>
       <c r="I5" t="n">
-        <v>31787.70126581829</v>
+        <v>31029.50851553772</v>
       </c>
       <c r="J5" t="n">
-        <v>27700.15220058221</v>
+        <v>30173.16955171993</v>
       </c>
       <c r="K5" t="n">
-        <v>31787.70126581829</v>
+        <v>30173.16955171993</v>
       </c>
       <c r="L5" t="n">
-        <v>32753.82354121733</v>
+        <v>31029.50851553772</v>
       </c>
       <c r="M5" t="n">
-        <v>32753.82354121733</v>
+        <v>31029.50851553772</v>
       </c>
       <c r="N5" t="n">
-        <v>32753.82354121733</v>
+        <v>31029.50851553772</v>
       </c>
       <c r="O5" t="n">
-        <v>26215.27973689812</v>
+        <v>30173.16955171993</v>
       </c>
       <c r="P5" t="n">
-        <v>18798.37435670652</v>
+        <v>30173.16955171993</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>295111.86629587</v>
       </c>
       <c r="E6" t="n">
-        <v>20581.57179413387</v>
+        <v>3761.636786396615</v>
       </c>
       <c r="F6" t="n">
-        <v>261135.0668308838</v>
+        <v>290889.3014591766</v>
       </c>
       <c r="G6" t="n">
-        <v>287001.0368439988</v>
+        <v>284668.2821767327</v>
       </c>
       <c r="H6" t="n">
-        <v>294215.9936083764</v>
+        <v>292817.1976039917</v>
       </c>
       <c r="I6" t="n">
-        <v>294215.9936083764</v>
+        <v>292817.1976039917</v>
       </c>
       <c r="J6" t="n">
-        <v>59478.65933161939</v>
+        <v>11910.55221365555</v>
       </c>
       <c r="K6" t="n">
-        <v>223636.775297783</v>
+        <v>290889.3014591766</v>
       </c>
       <c r="L6" t="n">
-        <v>278807.7971928739</v>
+        <v>276519.3667494738</v>
       </c>
       <c r="M6" t="n">
-        <v>295216.3665887712</v>
+        <v>292817.1976039917</v>
       </c>
       <c r="N6" t="n">
-        <v>295216.3665887712</v>
+        <v>292817.1976039917</v>
       </c>
       <c r="O6" t="n">
-        <v>116546.0413828972</v>
+        <v>20059.46764091449</v>
       </c>
       <c r="P6" t="n">
-        <v>250250.7136422001</v>
+        <v>290889.3014591766</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="F2" t="n">
+        <v>358.909580840975</v>
+      </c>
+      <c r="G2" t="n">
         <v>369.0957251250487</v>
       </c>
-      <c r="G2" t="n">
-        <v>378.1144210805207</v>
-      </c>
       <c r="H2" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="I2" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="J2" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="K2" t="n">
-        <v>378.1144210805207</v>
+        <v>358.909580840975</v>
       </c>
       <c r="L2" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="M2" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="N2" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="O2" t="n">
-        <v>311.8305170383628</v>
+        <v>358.909580840975</v>
       </c>
       <c r="P2" t="n">
-        <v>223.606494150121</v>
+        <v>358.909580840975</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="F2" t="n">
-        <v>39.60266346638485</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.018695955472026</v>
+        <v>10.18614428407369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>280.8717022368069</v>
+        <v>348.7234365569013</v>
       </c>
       <c r="K2" t="n">
-        <v>88.22402288824173</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.51071174487168</v>
+        <v>20.37228856814738</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>203.0957824052493</v>
+        <v>338.5372922728276</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="K2" t="n">
-        <v>39.60266346638485</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.018695955472026</v>
+        <v>10.18614428407369</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>280.8717022368069</v>
+        <v>348.7234365569013</v>
       </c>
       <c r="P2" t="n">
-        <v>88.22402288824173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="C11" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="D11" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="E11" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="F11" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="G11" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="H11" t="n">
         <v>329.4930616586638</v>
@@ -28147,16 +28149,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V11" t="n">
-        <v>329.4930616586638</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="Y11" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
     </row>
     <row r="12">
@@ -28324,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.0957251250487</v>
+        <v>358.909580840975</v>
       </c>
       <c r="C14" t="n">
-        <v>369.0957251250487</v>
+        <v>358.909580840975</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>358.909580840975</v>
       </c>
       <c r="E14" t="n">
-        <v>369.0957251250487</v>
+        <v>358.909580840975</v>
       </c>
       <c r="F14" t="n">
-        <v>369.0957251250487</v>
+        <v>358.909580840975</v>
       </c>
       <c r="G14" t="n">
-        <v>369.0957251250487</v>
+        <v>358.909580840975</v>
       </c>
       <c r="H14" t="n">
         <v>329.4930616586638</v>
@@ -28390,10 +28392,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>369.0957251250487</v>
+        <v>358.909580840975</v>
       </c>
       <c r="Y14" t="n">
-        <v>369.0957251250487</v>
+        <v>358.909580840975</v>
       </c>
     </row>
     <row r="15">
@@ -28561,22 +28563,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="F17" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="G17" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="H17" t="n">
         <v>329.4930616586638</v>
@@ -28627,10 +28629,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="Y17" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
     </row>
     <row r="18">
@@ -28798,22 +28800,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="F20" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="G20" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="H20" t="n">
         <v>329.4930616586638</v>
@@ -28864,10 +28866,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="Y20" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
     </row>
     <row r="21">
@@ -29035,22 +29037,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="F23" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="G23" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="H23" t="n">
         <v>329.4930616586638</v>
@@ -29101,10 +29103,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="Y23" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
     </row>
     <row r="24">
@@ -29272,22 +29274,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="C26" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="D26" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="E26" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="F26" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="G26" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="H26" t="n">
         <v>329.4930616586638</v>
@@ -29332,16 +29334,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>329.4930616586638</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
       <c r="Y26" t="n">
-        <v>329.4930616586638</v>
+        <v>358.909580840975</v>
       </c>
     </row>
     <row r="27">
@@ -29509,22 +29511,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>378.1144210805207</v>
+        <v>358.909580840975</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>358.909580840975</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>358.909580840975</v>
       </c>
       <c r="E29" t="n">
-        <v>378.1144210805207</v>
+        <v>358.909580840975</v>
       </c>
       <c r="F29" t="n">
-        <v>378.1144210805207</v>
+        <v>358.909580840975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.1144210805207</v>
+        <v>358.909580840975</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
@@ -29575,10 +29577,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>378.1144210805207</v>
+        <v>358.909580840975</v>
       </c>
       <c r="Y29" t="n">
-        <v>378.1144210805207</v>
+        <v>358.909580840975</v>
       </c>
     </row>
     <row r="30">
@@ -29746,22 +29748,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="F32" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="G32" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
@@ -29812,10 +29814,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
     </row>
     <row r="33">
@@ -29983,22 +29985,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="F35" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="G35" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="H35" t="n">
         <v>329.4930616586638</v>
@@ -30049,10 +30051,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
     </row>
     <row r="36">
@@ -30220,22 +30222,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="F38" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="G38" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
@@ -30286,10 +30288,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>369.0957251250487</v>
       </c>
     </row>
     <row r="39">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>311.8305170383628</v>
+        <v>358.909580840975</v>
       </c>
       <c r="C41" t="n">
-        <v>311.8305170383628</v>
+        <v>358.909580840975</v>
       </c>
       <c r="D41" t="n">
-        <v>311.8305170383628</v>
+        <v>358.909580840975</v>
       </c>
       <c r="E41" t="n">
-        <v>311.8305170383628</v>
+        <v>358.909580840975</v>
       </c>
       <c r="F41" t="n">
-        <v>311.8305170383628</v>
+        <v>358.909580840975</v>
       </c>
       <c r="G41" t="n">
-        <v>311.8305170383628</v>
+        <v>358.909580840975</v>
       </c>
       <c r="H41" t="n">
-        <v>311.8305170383628</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
         <v>171.0890268032919</v>
@@ -30517,16 +30519,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
-        <v>311.8305170383628</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>311.8305170383628</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>311.8305170383628</v>
+        <v>358.909580840975</v>
       </c>
       <c r="Y41" t="n">
-        <v>311.8305170383628</v>
+        <v>358.909580840975</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.606494150121</v>
+        <v>358.909580840975</v>
       </c>
       <c r="C44" t="n">
-        <v>223.606494150121</v>
+        <v>358.909580840975</v>
       </c>
       <c r="D44" t="n">
-        <v>223.606494150121</v>
+        <v>358.909580840975</v>
       </c>
       <c r="E44" t="n">
-        <v>223.606494150121</v>
+        <v>358.909580840975</v>
       </c>
       <c r="F44" t="n">
-        <v>223.606494150121</v>
+        <v>358.909580840975</v>
       </c>
       <c r="G44" t="n">
-        <v>223.606494150121</v>
+        <v>358.909580840975</v>
       </c>
       <c r="H44" t="n">
-        <v>223.606494150121</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
         <v>171.0890268032919</v>
@@ -30751,19 +30753,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>223.606494150121</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
-        <v>223.606494150121</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>223.606494150121</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>223.606494150121</v>
+        <v>358.909580840975</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.606494150121</v>
+        <v>358.909580840975</v>
       </c>
     </row>
     <row r="45">
@@ -30833,10 +30835,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>223.606494150121</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>223.606494150121</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -30906,19 +30908,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T46" t="n">
-        <v>223.606494150121</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>223.606494150121</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
-        <v>223.606494150121</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>223.606494150121</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>223.606494150121</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
